--- a/RAAL/Production/Input/GHI_2024-02-14.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-14.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2939.44</v>
+        <v>2939.88</v>
       </c>
       <c r="H2">
-        <v>6210.83</v>
+        <v>6212.58</v>
       </c>
       <c r="I2">
-        <v>730.83</v>
+        <v>730.66</v>
       </c>
       <c r="J2">
-        <v>804.48</v>
+        <v>758.2</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>804.48</v>
+        <v>758.2</v>
       </c>
     </row>
   </sheetData>
@@ -872,19 +872,19 @@
         <v>7.24</v>
       </c>
       <c r="I9">
-        <v>54.96</v>
+        <v>55.03</v>
       </c>
       <c r="J9">
         <v>8.69</v>
       </c>
       <c r="K9">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>108.12</v>
+        <v>108.15</v>
       </c>
       <c r="I10">
-        <v>432.86</v>
+        <v>433.1</v>
       </c>
       <c r="J10">
-        <v>49</v>
+        <v>48.99</v>
       </c>
       <c r="K10">
-        <v>28.7</v>
+        <v>28.08</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28.7</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>249.24</v>
+        <v>249.29</v>
       </c>
       <c r="I11">
-        <v>635</v>
+        <v>635.22</v>
       </c>
       <c r="J11">
-        <v>72.34999999999999</v>
+        <v>72.33</v>
       </c>
       <c r="K11">
-        <v>63.97</v>
+        <v>66.31</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>63.97</v>
+        <v>66.31</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>369.67</v>
+        <v>369.73</v>
       </c>
       <c r="I12">
-        <v>731.83</v>
+        <v>732.02</v>
       </c>
       <c r="J12">
-        <v>85.87</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="K12">
-        <v>94.34999999999999</v>
+        <v>95.81</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>94.34999999999999</v>
+        <v>95.81</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>450.42</v>
+        <v>450.48</v>
       </c>
       <c r="I13">
-        <v>779.9299999999999</v>
+        <v>780.1</v>
       </c>
       <c r="J13">
-        <v>93.34</v>
+        <v>93.31</v>
       </c>
       <c r="K13">
-        <v>115.36</v>
+        <v>115.85</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>115.36</v>
+        <v>115.85</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>481.74</v>
+        <v>481.8</v>
       </c>
       <c r="I14">
-        <v>796.2</v>
+        <v>796.36</v>
       </c>
       <c r="J14">
-        <v>95.98</v>
+        <v>95.95</v>
       </c>
       <c r="K14">
-        <v>123.66</v>
+        <v>123.98</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>123.66</v>
+        <v>123.98</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>460.15</v>
+        <v>460.2</v>
       </c>
       <c r="I15">
-        <v>785.16</v>
+        <v>785.3200000000001</v>
       </c>
       <c r="J15">
-        <v>94.16</v>
+        <v>94.13</v>
       </c>
       <c r="K15">
-        <v>118.98</v>
+        <v>118.87</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>118.98</v>
+        <v>118.87</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>388.01</v>
+        <v>388.06</v>
       </c>
       <c r="I16">
-        <v>743.75</v>
+        <v>743.89</v>
       </c>
       <c r="J16">
-        <v>87.64</v>
+        <v>87.62</v>
       </c>
       <c r="K16">
-        <v>103.58</v>
+        <v>99.16</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>103.58</v>
+        <v>99.16</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>273.88</v>
+        <v>273.92</v>
       </c>
       <c r="I17">
-        <v>658.27</v>
+        <v>658.4299999999999</v>
       </c>
       <c r="J17">
-        <v>75.41</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K17">
-        <v>86.95</v>
+        <v>68.48</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>86.95</v>
+        <v>68.48</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>134.43</v>
+        <v>134.46</v>
       </c>
       <c r="I18">
-        <v>484.62</v>
+        <v>484.79</v>
       </c>
       <c r="J18">
         <v>54.47</v>
       </c>
       <c r="K18">
-        <v>58.21</v>
+        <v>35.03</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>58.21</v>
+        <v>35.03</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,19 +1282,19 @@
         <v>16.55</v>
       </c>
       <c r="I19">
-        <v>108.25</v>
+        <v>108.32</v>
       </c>
       <c r="J19">
         <v>13.93</v>
       </c>
       <c r="K19">
-        <v>8.779999999999999</v>
+        <v>4.83</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>8.779999999999999</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="20" spans="1:13">
